--- a/文档/项目甘特图.xlsx
+++ b/文档/项目甘特图.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\Library-Management-System\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10505B0F-4F77-4B96-8503-17BDAD0D7E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20048A7E-B42D-4DF2-9037-F381239C33D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="项目规划表" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="项目规划表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ActualBeyond">PeriodInActual*(项目规划表!$E1&gt;0)</definedName>
@@ -919,6 +920,9 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -966,9 +970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -1185,6 +1186,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="876726112"/>
+        <c:axId val="874018096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="876726112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874018096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="874018096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876726112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5371A315-9468-4CE2-968F-DF235FCB4A22}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295694" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815081CE-8015-4027-A192-CB490D4F750C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,8 +2224,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1450,13 +2254,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1464,72 +2268,72 @@
         <v>15</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="30"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="32"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="18" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="17">
@@ -1570,12 +2374,12 @@
       </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>

--- a/文档/项目甘特图.xlsx
+++ b/文档/项目甘特图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\Library-Management-System\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20048A7E-B42D-4DF2-9037-F381239C33D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56C7E27-4347-4FA1-939A-7879862052F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>在右侧选择要突出显示的周期。描述图表的图例如下所示。</t>
   </si>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>中层：逻辑结构设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -2225,7 +2221,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2328,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>12</v>
@@ -2589,7 +2585,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <v>9</v>
@@ -2617,8 +2613,8 @@
       <c r="F7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
+      <c r="G7" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2637,8 +2633,8 @@
       <c r="F8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
+      <c r="G8" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2663,7 +2659,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>32</v>
@@ -2683,7 +2679,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -2703,7 +2699,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>45</v>
